--- a/external/correzioni/VDA.xlsx
+++ b/external/correzioni/VDA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VALLE_D_AOSTA\Valle D'Aosta\original\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidenicoli/Local_Workspace/TesiMag/external/correzioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31346CC-E0E5-E049-961E-593AB10305EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_MM" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="240">
   <si>
     <t>sensor_key</t>
   </si>
@@ -690,9 +691,6 @@
     <t>Mi sarei aspettato associazione con Saint-Christophe - Aeroporto - anche le coordinate dovrebbero essere aeroporto</t>
   </si>
   <si>
-    <t>ele</t>
-  </si>
-  <si>
     <t>da DEM - ok GE</t>
   </si>
   <si>
@@ -730,12 +728,24 @@
   </si>
   <si>
     <t>Credo sia giusta la quota del DEM - Possiamo anche controllare con l'anagrfe radiazione solare</t>
+  </si>
+  <si>
+    <t>lon_ok</t>
+  </si>
+  <si>
+    <t>lat_ok</t>
+  </si>
+  <si>
+    <t>ele_ok</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1573,46 +1583,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="59.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="152.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="59.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.5" customWidth="1"/>
+    <col min="31" max="31" width="152.5" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1691,20 +1702,23 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
-        <v>13</v>
+      <c r="AA1" t="s">
+        <v>239</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="AD1" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>79</v>
       </c>
@@ -1786,11 +1800,12 @@
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="9" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>80</v>
       </c>
@@ -1871,14 +1886,15 @@
       </c>
       <c r="AA3" s="5"/>
       <c r="AB3" s="5"/>
-      <c r="AC3" s="5">
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5">
         <v>574</v>
       </c>
-      <c r="AD3" s="9" t="s">
-        <v>224</v>
+      <c r="AE3" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>81</v>
       </c>
@@ -1959,14 +1975,15 @@
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5">
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5">
         <v>581</v>
       </c>
-      <c r="AD4" s="9" t="s">
-        <v>224</v>
+      <c r="AE4" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>82</v>
       </c>
@@ -2045,20 +2062,21 @@
       <c r="Z5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5">
         <v>7.1074999999999999</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <v>45.678400000000003</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <v>1238</v>
       </c>
-      <c r="AD5" s="9" t="s">
-        <v>225</v>
+      <c r="AE5" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>83</v>
       </c>
@@ -2139,14 +2157,15 @@
       </c>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5">
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5">
         <v>741</v>
       </c>
-      <c r="AD6" s="9" t="s">
-        <v>224</v>
+      <c r="AE6" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>84</v>
       </c>
@@ -2225,20 +2244,21 @@
       <c r="Z7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5">
         <v>7.7161999999999997</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <v>45.874699999999997</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AD7" s="5">
         <v>2004</v>
       </c>
-      <c r="AD7" s="9" t="s">
-        <v>225</v>
+      <c r="AE7" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>85</v>
       </c>
@@ -2318,7 +2338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>87</v>
       </c>
@@ -2399,14 +2419,15 @@
       </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="5">
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5">
         <v>1139</v>
       </c>
-      <c r="AD9" s="9" t="s">
-        <v>227</v>
+      <c r="AE9" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2486,7 +2507,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>88</v>
       </c>
@@ -2565,20 +2586,21 @@
       <c r="Z11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5">
         <v>7.74</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AC11" s="5">
         <v>45.617199999999997</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AD11" s="5">
         <v>340</v>
       </c>
-      <c r="AD11" s="9" t="s">
-        <v>225</v>
+      <c r="AE11" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2658,7 +2680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>9</v>
       </c>
@@ -2739,14 +2761,15 @@
       </c>
       <c r="AA13" s="5"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="5">
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5">
         <v>1288</v>
       </c>
-      <c r="AD13" s="9" t="s">
-        <v>228</v>
+      <c r="AE13" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>91</v>
       </c>
@@ -2826,7 +2849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>92</v>
       </c>
@@ -2905,20 +2928,21 @@
       <c r="Z15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5">
         <v>7.6134000000000004</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AC15" s="5">
         <v>45.683399999999999</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AD15" s="5">
         <v>1260</v>
       </c>
-      <c r="AD15" s="9" t="s">
-        <v>225</v>
+      <c r="AE15" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2998,7 +3022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>94</v>
       </c>
@@ -3077,20 +3101,21 @@
       <c r="Z17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5">
         <v>7.6087999999999996</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AC17" s="5">
         <v>45.620600000000003</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AD17" s="5">
         <v>1430</v>
       </c>
-      <c r="AD17" s="9" t="s">
-        <v>225</v>
+      <c r="AE17" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>95</v>
       </c>
@@ -3171,14 +3196,15 @@
       </c>
       <c r="AA18" s="5"/>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="5">
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5">
         <v>1627</v>
       </c>
-      <c r="AD18" s="9" t="s">
-        <v>226</v>
+      <c r="AE18" s="9" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>96</v>
       </c>
@@ -3259,14 +3285,15 @@
       </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="5">
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5">
         <v>2182</v>
       </c>
-      <c r="AD19" s="9" t="s">
-        <v>228</v>
+      <c r="AE19" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>98</v>
       </c>
@@ -3347,14 +3374,15 @@
       </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="7">
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="7">
         <v>1474.06164550781</v>
       </c>
-      <c r="AD20" s="9" t="s">
-        <v>228</v>
+      <c r="AE20" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>99</v>
       </c>
@@ -3435,14 +3463,15 @@
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="7">
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="7">
         <v>1785.8046875</v>
       </c>
-      <c r="AD21" s="9" t="s">
-        <v>228</v>
+      <c r="AE21" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>100</v>
       </c>
@@ -3523,14 +3552,15 @@
       </c>
       <c r="AA22" s="5"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="7">
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="7">
         <v>2228.48852539062</v>
       </c>
-      <c r="AD22" s="9" t="s">
-        <v>228</v>
+      <c r="AE22" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>101</v>
       </c>
@@ -3611,14 +3641,15 @@
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
-      <c r="AC23" s="7">
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="7">
         <v>1612.9794921875</v>
       </c>
-      <c r="AD23" s="9" t="s">
-        <v>228</v>
+      <c r="AE23" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>102</v>
       </c>
@@ -3699,14 +3730,15 @@
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="7">
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="7">
         <v>1686.21508789062</v>
       </c>
-      <c r="AD24" s="9" t="s">
-        <v>228</v>
+      <c r="AE24" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>103</v>
       </c>
@@ -3788,11 +3820,12 @@
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
-      <c r="AD25" s="9" t="s">
-        <v>229</v>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>104</v>
       </c>
@@ -3873,14 +3906,15 @@
       </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="5">
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5">
         <v>2290</v>
       </c>
-      <c r="AD26" s="9" t="s">
-        <v>225</v>
+      <c r="AE26" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>105</v>
       </c>
@@ -3961,14 +3995,15 @@
       </c>
       <c r="AA27" s="5"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="5">
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5">
         <v>2162</v>
       </c>
-      <c r="AD27" s="9" t="s">
-        <v>225</v>
+      <c r="AE27" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>106</v>
       </c>
@@ -4049,14 +4084,15 @@
       </c>
       <c r="AA28" s="5"/>
       <c r="AB28" s="5"/>
-      <c r="AC28" s="5">
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5">
         <v>2076</v>
       </c>
-      <c r="AD28" s="9" t="s">
-        <v>225</v>
+      <c r="AE28" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>107</v>
       </c>
@@ -4137,14 +4173,15 @@
       </c>
       <c r="AA29" s="5"/>
       <c r="AB29" s="5"/>
-      <c r="AC29" s="5">
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5">
         <v>2040</v>
       </c>
-      <c r="AD29" s="9" t="s">
-        <v>225</v>
+      <c r="AE29" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>109</v>
       </c>
@@ -4225,12 +4262,13 @@
       </c>
       <c r="AA30" s="5"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="5">
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5">
         <v>314</v>
       </c>
-      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>111</v>
       </c>
@@ -4311,12 +4349,13 @@
       </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="5">
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5">
         <v>1337</v>
       </c>
-      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>112</v>
       </c>
@@ -4396,7 +4435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>113</v>
       </c>
@@ -4477,14 +4516,15 @@
       </c>
       <c r="AA33" s="5"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="5">
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5">
         <v>2307</v>
       </c>
-      <c r="AD33" s="9" t="s">
-        <v>230</v>
+      <c r="AE33" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>115</v>
       </c>
@@ -4565,14 +4605,15 @@
       </c>
       <c r="AA34" s="5"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="5">
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5">
         <v>3260</v>
       </c>
-      <c r="AD34" s="9" t="s">
-        <v>236</v>
+      <c r="AE34" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>116</v>
       </c>
@@ -4652,7 +4693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>27</v>
       </c>
@@ -4732,7 +4773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>28</v>
       </c>
@@ -4812,7 +4853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>123</v>
       </c>
@@ -4893,14 +4934,15 @@
       </c>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="7">
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="7">
         <v>1831.66052246094</v>
       </c>
-      <c r="AD38" s="9" t="s">
-        <v>231</v>
+      <c r="AE38" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>118</v>
       </c>
@@ -4981,14 +5023,15 @@
       </c>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="7">
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="7">
         <v>1643.64099121094</v>
       </c>
-      <c r="AD39" s="9" t="s">
-        <v>230</v>
+      <c r="AE39" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>120</v>
       </c>
@@ -5069,14 +5112,15 @@
       </c>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="7">
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="7">
         <v>1370.89770507812</v>
       </c>
-      <c r="AD40" s="9" t="s">
-        <v>230</v>
+      <c r="AE40" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>122</v>
       </c>
@@ -5157,14 +5201,15 @@
       </c>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
-      <c r="AC41" s="7">
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="7">
         <v>2250.2177734375</v>
       </c>
-      <c r="AD41" s="9" t="s">
-        <v>231</v>
+      <c r="AE41" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>121</v>
       </c>
@@ -5245,14 +5290,15 @@
       </c>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="7">
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="7">
         <v>2043.76428222656</v>
       </c>
-      <c r="AD42" s="9" t="s">
-        <v>230</v>
+      <c r="AE42" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>124</v>
       </c>
@@ -5333,14 +5379,15 @@
       </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="5">
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5">
         <v>368</v>
       </c>
-      <c r="AD43" s="9" t="s">
-        <v>231</v>
+      <c r="AE43" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>125</v>
       </c>
@@ -5421,14 +5468,15 @@
       </c>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
-      <c r="AC44" s="5">
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5">
         <v>339</v>
       </c>
-      <c r="AD44" s="9" t="s">
-        <v>230</v>
+      <c r="AE44" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>126</v>
       </c>
@@ -5508,7 +5556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>127</v>
       </c>
@@ -5588,7 +5636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>129</v>
       </c>
@@ -5668,7 +5716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>130</v>
       </c>
@@ -5748,7 +5796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>131</v>
       </c>
@@ -5829,14 +5877,15 @@
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="5">
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5">
         <v>1633</v>
       </c>
-      <c r="AD49" s="9" t="s">
-        <v>231</v>
+      <c r="AE49" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>132</v>
       </c>
@@ -5916,7 +5965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>133</v>
       </c>
@@ -5996,7 +6045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>43</v>
       </c>
@@ -6078,11 +6127,12 @@
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
-      <c r="AD52" s="9" t="s">
-        <v>230</v>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>135</v>
       </c>
@@ -6164,11 +6214,12 @@
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
-      <c r="AD53" s="9" t="s">
-        <v>230</v>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>136</v>
       </c>
@@ -6248,7 +6299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>77</v>
       </c>
@@ -6330,11 +6381,12 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
-      <c r="AD55" s="14" t="s">
-        <v>234</v>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="14" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>78</v>
       </c>
@@ -6413,20 +6465,21 @@
       <c r="Z56" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA56" s="5">
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5">
         <v>7.7072900000000004</v>
       </c>
-      <c r="AB56" s="5">
+      <c r="AC56" s="5">
         <v>45.935495000000003</v>
       </c>
-      <c r="AC56" s="5">
+      <c r="AD56" s="5">
         <v>3488</v>
       </c>
-      <c r="AD56" s="9" t="s">
-        <v>235</v>
+      <c r="AE56" s="9" t="s">
+        <v>234</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>137</v>
       </c>
@@ -6506,7 +6559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>138</v>
       </c>
@@ -6586,7 +6639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>139</v>
       </c>
@@ -6668,11 +6721,12 @@
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
-      <c r="AD59" s="9" t="s">
-        <v>230</v>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>140</v>
       </c>
@@ -6754,11 +6808,12 @@
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
-      <c r="AD60" s="9" t="s">
-        <v>230</v>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>50</v>
       </c>
@@ -6838,7 +6893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>143</v>
       </c>
@@ -6918,7 +6973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>146</v>
       </c>
@@ -6999,14 +7054,15 @@
       </c>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
-      <c r="AC63" s="5">
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5">
         <v>2127</v>
       </c>
-      <c r="AD63" s="9" t="s">
-        <v>233</v>
+      <c r="AE63" s="9" t="s">
+        <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>53</v>
       </c>
@@ -7087,14 +7143,15 @@
       </c>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
-      <c r="AC64" s="5">
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5">
         <v>1000</v>
       </c>
-      <c r="AD64" s="9" t="s">
-        <v>228</v>
+      <c r="AE64" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>147</v>
       </c>
@@ -7175,14 +7232,15 @@
       </c>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
-      <c r="AC65" s="5">
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5">
         <v>644</v>
       </c>
-      <c r="AD65" s="9" t="s">
-        <v>231</v>
+      <c r="AE65" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>148</v>
       </c>
@@ -7262,7 +7320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>149</v>
       </c>
@@ -7342,7 +7400,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>150</v>
       </c>
@@ -7423,14 +7481,15 @@
       </c>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
-      <c r="AC68" s="5">
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5">
         <v>1180</v>
       </c>
-      <c r="AD68" s="9" t="s">
-        <v>230</v>
+      <c r="AE68" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>151</v>
       </c>
@@ -7510,7 +7569,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>152</v>
       </c>
@@ -7590,7 +7649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>59</v>
       </c>
@@ -7670,7 +7729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>154</v>
       </c>
@@ -7750,7 +7809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>155</v>
       </c>
@@ -7831,14 +7890,15 @@
       </c>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
-      <c r="AC73" s="5">
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5">
         <v>832</v>
       </c>
-      <c r="AD73" s="9" t="s">
-        <v>230</v>
+      <c r="AE73" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>156</v>
       </c>
@@ -7919,14 +7979,15 @@
       </c>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
-      <c r="AC74" s="5">
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5">
         <v>540</v>
       </c>
-      <c r="AD74" s="9" t="s">
-        <v>231</v>
+      <c r="AE74" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>157</v>
       </c>
@@ -8006,7 +8067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>158</v>
       </c>
@@ -8087,14 +8148,15 @@
       </c>
       <c r="AA76" s="5"/>
       <c r="AB76" s="5"/>
-      <c r="AC76" s="5">
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5">
         <v>2376</v>
       </c>
-      <c r="AD76" s="9" t="s">
-        <v>231</v>
+      <c r="AE76" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>160</v>
       </c>
@@ -8175,14 +8237,15 @@
       </c>
       <c r="AA77" s="5"/>
       <c r="AB77" s="5"/>
-      <c r="AC77" s="5">
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5">
         <v>2356</v>
       </c>
-      <c r="AD77" s="9" t="s">
-        <v>231</v>
+      <c r="AE77" s="9" t="s">
+        <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>161</v>
       </c>
@@ -8262,7 +8325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>162</v>
       </c>
@@ -8342,7 +8405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>62</v>
       </c>
@@ -8422,7 +8485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>164</v>
       </c>
@@ -8503,14 +8566,15 @@
       </c>
       <c r="AA81" s="5"/>
       <c r="AB81" s="5"/>
-      <c r="AC81" s="5">
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5">
         <v>1030</v>
       </c>
-      <c r="AD81" s="9" t="s">
-        <v>230</v>
+      <c r="AE81" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>166</v>
       </c>
@@ -8592,11 +8656,12 @@
       <c r="AA82" s="5"/>
       <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
-      <c r="AD82" s="9" t="s">
-        <v>230</v>
+      <c r="AD82" s="5"/>
+      <c r="AE82" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>167</v>
       </c>
@@ -8677,12 +8742,13 @@
       </c>
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
-      <c r="AC83" s="5">
+      <c r="AC83" s="5"/>
+      <c r="AD83" s="5">
         <v>2177</v>
       </c>
-      <c r="AD83" s="9"/>
+      <c r="AE83" s="9"/>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>168</v>
       </c>
@@ -8762,7 +8828,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>65</v>
       </c>
@@ -8842,7 +8908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>169</v>
       </c>
@@ -8923,14 +8989,15 @@
       </c>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
-      <c r="AC86" s="5">
+      <c r="AC86" s="5"/>
+      <c r="AD86" s="5">
         <v>1993</v>
       </c>
-      <c r="AD86" s="9" t="s">
-        <v>230</v>
+      <c r="AE86" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>170</v>
       </c>
@@ -9010,7 +9077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>171</v>
       </c>
@@ -9090,7 +9157,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>72</v>
       </c>
@@ -9170,7 +9237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>73</v>
       </c>
@@ -9250,7 +9317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>74</v>
       </c>
@@ -9330,7 +9397,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>75</v>
       </c>
@@ -9410,7 +9477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="10">
         <v>76</v>
       </c>
@@ -9492,11 +9559,12 @@
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
-      <c r="AD93" s="14" t="s">
-        <v>232</v>
+      <c r="AD93" s="10"/>
+      <c r="AE93" s="14" t="s">
+        <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>174</v>
       </c>
@@ -9576,7 +9644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>175</v>
       </c>
@@ -9657,15 +9725,16 @@
       </c>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
-      <c r="AC95" s="5">
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="5">
         <v>839</v>
       </c>
-      <c r="AD95" s="9" t="s">
-        <v>230</v>
+      <c r="AE95" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AD95">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AE95">
     <sortCondition ref="E2:E95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
